--- a/participantes.xlsx
+++ b/participantes.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5798, 0583, 3435, 4781, 9359, 2864, 7088, 3634, 6290, 1437</t>
+          <t>0065, 0033, 0037, 0040, 0043, 0014, 0020, 0055, 0025, 0063</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2150, 5992, 5129, 4714, 7787, 3224, 1530, 7739, 4188, 6301</t>
+          <t>0005, 0038, 0076, 0049, 0020, 0091, 0060, 0061, 0062, 0095</t>
         </is>
       </c>
     </row>
@@ -492,14 +492,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2432, 1533, 8101, 1483, 8364, 3435, 0079, 6609, 7544, 4445</t>
+          <t>0089, 0067, 0035, 0071, 0041, 0019, 0022, 0056, 0057, 0028</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sasa</t>
+          <t>santiago</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,31 +509,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3584, 8417, 0834, 9796, 3304, 3019, 3756, 6705, 8507, 1083</t>
+          <t>0034, 0069, 0042, 0044, 0013, 0078, 0014, 0016, 0090, 0092</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sasa</t>
+          <t>santiago</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4198, 9607, 8422, 9353, 6699, 7949, 1046, 2808, 2782, 1311</t>
+          <t>0065, 0066, 0003, 0033, 0072, 0080, 0084, 0055, 0026, 0093</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dddd</t>
+          <t>santiago</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,24 +543,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0928, 3079, 8008, 7186, 5939, 0466, 8024, 8730, 4027, 1308</t>
+          <t>0000, 0070, 0040, 0009, 0010, 0043, 0081, 0024, 0058, 0031</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sasa</t>
+          <t>santiago</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0004, 0070, 0071, 0041, 0076, 0052, 0088, 0090, 0091, 0060</t>
+          <t>0098, 0037, 0008, 0075, 0048, 0085, 0087, 0023, 0025, 0059</t>
         </is>
       </c>
     </row>
@@ -572,19 +572,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0064, 0065, 0032, 0099, 0067, 0043, 0046, 0047, 0080, 0092</t>
+          <t>0039, 0011, 0012, 0046, 0079, 0017, 0050, 0051, 0088, 0094</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sasa</t>
+          <t>santiago</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0069, 0006, 0072, 0042, 0045, 0048, 0082, 0053, 0055, 0063</t>
+          <t>0001, 0006, 0074, 0045, 0047, 0018, 0053, 0086, 0054, 0021</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0096, 0001, 0003, 0037, 0005, 0040, 0012, 0015, 0026, 0061</t>
+          <t>0064, 0097, 0032, 0099, 0068, 0073, 0082, 0083, 0027, 0029</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0089, 0033, 0036, 0011, 0075, 0014, 0086, 0087, 0057, 0093</t>
+          <t>0096, 0002, 0004, 0036, 0007, 0077, 0015, 0052, 0030, 0063</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0073, 0010, 0059, 0081, 0085, 0054, 0022, 0027, 0029, 0030</t>
+          <t>0001, 0066, 0070, 0041, 0046, 0049, 0053, 0023, 0026, 0030</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0068, 0077, 0013, 0049, 0019, 0051, 0083, 0021, 0023, 0095</t>
+          <t>0036, 0075, 0014, 0079, 0080, 0047, 0083, 0084, 0021, 0089</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0000, 0097, 0008, 0009, 0074, 0044, 0078, 0016, 0020, 0056</t>
+          <t>0096, 0000, 0034, 0067, 0003, 0071, 0072, 0045, 0015, 0058</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0293, 0553, 5034, 2542, 9743, 3950, 5206, 5751, 5497, 8286</t>
+          <t>0002, 0008, 0013, 0048, 0081, 0017, 0016, 0052, 0025, 0095</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0228, 5220, 5963, 7851, 7025, 2903, 9402, 6747, 4414, 4383</t>
+          <t>0064, 0098, 0074, 0011, 0082, 0022, 0087, 0057, 0028, 0093</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4610, 8580, 9733, 0391, 0298, 4971, 9072, 8565, 0120, 1369</t>
+          <t>0068, 0069, 0038, 0073, 0009, 0092, 0085, 0086, 0031, 0063</t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5760, 0640, 8007, 4424, 4681, 2957, 6575, 0208, 6515, 1019</t>
+          <t>0004, 0006, 0010, 0044, 0018, 0050, 0029, 0091, 0060, 0061</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sasa</t>
+          <t>santiago</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3201, 5858, 2053, 8071, 2794, 6865, 3027, 1497, 3675, 1180</t>
+          <t>0065, 0097, 0099, 0035, 0037, 0005, 0039, 0059, 0020, 0027</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0352, 6022, 1433, 1707, 5454, 3249, 3251, 3509, 1079, 7705</t>
+          <t>0032, 0056, 0040, 0076, 0051, 0055, 0062, 0090, 0088, 0094</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,432 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0098, 0035, 0038, 0017, 0018, 0050, 0062, 0024, 0025, 0094</t>
+          <t>0033, 0007, 0042, 0043, 0012, 0077, 0078, 0019, 0054, 0024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0066, 0035, 0041, 0074, 0013, 0083, 0054, 0024, 0091, 0093</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0002, 0099, 0038, 0007, 0006, 0009, 0076, 0085, 0088, 0062</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0065, 0058, 0008, 0028, 0015, 0048, 0057, 0090, 0092, 0063</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0067, 0069, 0075, 0045, 0077, 0078, 0087, 0027, 0060, 0029</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0032, 0096, 0033, 0003, 0012, 0047, 0016, 0049, 0080, 0020</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0001, 0098, 0036, 0042, 0017, 0019, 0023, 0089, 0030, 0095</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0064, 0000, 0005, 0039, 0010, 0011, 0079, 0050, 0055, 0026</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0004, 0037, 0070, 0040, 0073, 0081, 0053, 0086, 0059, 0061</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0097, 0068, 0071, 0072, 0043, 0014, 0082, 0021, 0056, 0094</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0034, 0044, 0046, 0018, 0051, 0052, 0084, 0022, 0025, 0031</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0064, 0068, 0037, 0038, 0074, 0046, 0078, 0019, 0054, 0091</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0099, 0035, 0008, 0041, 0042, 0079, 0084, 0085, 0056, 0090</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0001, 0098, 0033, 0039, 0012, 0013, 0055, 0058, 0059, 0030</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0032, 0045, 0014, 0015, 0048, 0086, 0087, 0092, 0093, 0095</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0096, 0097, 0004, 0010, 0080, 0016, 0082, 0023, 0062, 0094</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0043, 0077, 0017, 0050, 0081, 0020, 0051, 0057, 0026, 0029</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0000, 0067, 0069, 0011, 0047, 0024, 0025, 0028, 0063, 0031</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0002, 0066, 0036, 0005, 0072, 0073, 0009, 0049, 0052, 0089</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0065, 0034, 0003, 0007, 0040, 0075, 0044, 0021, 0022, 0088</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0070, 0006, 0071, 0076, 0018, 0083, 0053, 0027, 0060, 0061</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0068, 0069, 0010, 0076, 0078, 0019, 0086, 0090, 0059, 0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0089, 0033, 0066, 0013, 0048, 0051, 0021, 0054, 0025, 0093</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0032, 0004, 0074, 0045, 0046, 0049, 0082, 0087, 0055, 0060</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0065, 0035, 0036, 0037, 0009, 0042, 0011, 0041, 0088, 0094</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>santiago</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0002, 0034, 0099, 0006, 0071, 0008, 0012, 0047, 0052, 0053</t>
         </is>
       </c>
     </row>
